--- a/data/Sprouse2016/Experiment 1 materials - English.xlsx
+++ b/data/Sprouse2016/Experiment 1 materials - English.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsprouse/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\jmerchan\ubuntu_files\school\surprisal-and-acceptability\data\Sprouse2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F6CF0-0968-4C08-A8B3-BC8370CBE384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="25620" windowHeight="16060" tabRatio="876"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="876" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="practice items" sheetId="22" r:id="rId1"/>
@@ -2286,7 +2287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3216,22 +3217,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="33" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="33" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4080,13 +4072,16 @@
     <cellStyle name="Hyperlink" xfId="840" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="842" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="33"/>
+    <cellStyle name="Normal 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4413,22 +4408,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4436,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -4452,7 +4447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -4482,173 +4477,125 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="9"/>
-    <col min="18" max="18" width="10.83203125" style="9"/>
-    <col min="20" max="20" width="10.83203125" style="9"/>
-    <col min="22" max="22" width="10.83203125" style="9"/>
-    <col min="24" max="24" width="10.83203125" style="9"/>
-    <col min="26" max="26" width="10.83203125" style="9"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125"/>
+    <col min="18" max="18" width="10.83203125"/>
+    <col min="20" max="20" width="10.83203125"/>
+    <col min="22" max="22" width="10.83203125"/>
+    <col min="24" max="24" width="10.83203125"/>
+    <col min="26" max="26" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="L3" s="15"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="L3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="9"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="9"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="9"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="9"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="9"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="9"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="9"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>208</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="L5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
       <c r="F6" s="3" t="s">
         <v>528</v>
       </c>
       <c r="G6" t="s">
         <v>339</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="L6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
       <c r="F7" s="3" t="s">
         <v>529</v>
       </c>
       <c r="G7" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
       <c r="F8" s="3" t="s">
         <v>530</v>
       </c>
@@ -4656,98 +4603,68 @@
         <v>213</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="7"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="7"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="7"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="7"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="7"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="7"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="7"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
       <c r="F9" s="3" t="s">
         <v>531</v>
       </c>
       <c r="G9" t="s">
         <v>215</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="L9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>216</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
         <v>532</v>
       </c>
       <c r="G10" t="s">
         <v>217</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="L10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
       <c r="F11" s="3" t="s">
         <v>533</v>
       </c>
@@ -4755,16 +4672,13 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
       <c r="F12" s="3" t="s">
         <v>534</v>
       </c>
@@ -4772,677 +4686,498 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>222</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
       <c r="F13" s="3" t="s">
         <v>535</v>
       </c>
       <c r="G13" t="s">
         <v>223</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="9"/>
+      <c r="V13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="N14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="6"/>
       <c r="V14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="9"/>
       <c r="P15" s="3"/>
-      <c r="Q15" s="9"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="9"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="V15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
       <c r="G16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="N16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>340</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="6" t="s">
         <v>512</v>
       </c>
       <c r="G17" t="s">
         <v>341</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="N17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="6" t="s">
         <v>513</v>
       </c>
       <c r="G18" t="s">
         <v>226</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="T18" s="6"/>
       <c r="V18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="6" t="s">
         <v>514</v>
       </c>
       <c r="G19" t="s">
         <v>228</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="7"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="7"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Z19" s="15"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="V19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="6" t="s">
         <v>515</v>
       </c>
       <c r="G20" t="s">
         <v>230</v>
       </c>
-      <c r="N20" s="15"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Z20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="N20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="6" t="s">
         <v>516</v>
       </c>
       <c r="G21" t="s">
         <v>232</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="10"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="N21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="6" t="s">
         <v>517</v>
       </c>
       <c r="G22" t="s">
         <v>234</v>
       </c>
-      <c r="N22" s="15"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="9"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="N22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>235</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="6" t="s">
         <v>518</v>
       </c>
       <c r="G23" t="s">
         <v>236</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="9"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="9"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="9"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="9"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="6" t="s">
         <v>519</v>
       </c>
       <c r="G24" t="s">
         <v>238</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="9"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N25" s="15"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="9"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N26" s="15"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="N24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="N25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="N26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="N27" s="3"/>
-      <c r="O27" s="7"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="7"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="N28" s="15"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Z28" s="9"/>
-    </row>
-    <row r="29" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>389</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Z29" s="9"/>
-    </row>
-    <row r="30" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
+      <c r="N29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="2" t="s">
         <v>391</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Z30" s="9"/>
-    </row>
-    <row r="31" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
         <v>393</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" t="s">
         <v>394</v>
       </c>
-      <c r="N31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Z31" s="9"/>
-    </row>
-    <row r="32" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>395</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" t="s">
         <v>396</v>
       </c>
-      <c r="N32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Z32" s="9"/>
-    </row>
-    <row r="33" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>397</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" t="s">
         <v>398</v>
       </c>
-      <c r="N33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Z33" s="9"/>
-    </row>
-    <row r="34" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>399</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" t="s">
         <v>400</v>
       </c>
-      <c r="N34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Z34" s="9"/>
-    </row>
-    <row r="35" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>401</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" t="s">
         <v>402</v>
       </c>
-      <c r="N35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Z35" s="9"/>
-    </row>
-    <row r="36" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>403</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="37" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>405</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" t="s">
         <v>406</v>
       </c>
-      <c r="N37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Z37" s="9"/>
-    </row>
-    <row r="38" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>262</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="N39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>389</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="N40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Z40" s="9"/>
-    </row>
-    <row r="41" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
         <v>409</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
         <v>411</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>413</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
         <v>415</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
         <v>417</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="47" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
         <v>419</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" t="s">
         <v>421</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5453,17 +5188,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
@@ -5474,7 +5209,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -5485,7 +5220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -5496,7 +5231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -5507,7 +5242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -5518,7 +5253,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -5529,7 +5264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -5540,7 +5275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -5551,7 +5286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -5562,7 +5297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5573,7 +5308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -5584,7 +5319,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -5595,7 +5330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -5606,7 +5341,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -5617,7 +5352,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -5628,7 +5363,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5639,7 +5374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -5650,7 +5385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -5661,7 +5396,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5672,7 +5407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -5683,7 +5418,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -5694,7 +5429,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -5705,7 +5440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5716,7 +5451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -5727,7 +5462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -5738,7 +5473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5749,7 +5484,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -5760,7 +5495,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -5771,7 +5506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5782,7 +5517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -5793,7 +5528,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5804,7 +5539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -5815,7 +5550,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -5827,7 +5562,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
     <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5836,101 +5571,77 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="9"/>
-    <col min="16" max="16" width="10.83203125" style="9"/>
-    <col min="18" max="18" width="10.83203125" style="9"/>
-    <col min="20" max="20" width="10.83203125" style="9"/>
-    <col min="22" max="22" width="10.83203125" style="9"/>
-    <col min="24" max="24" width="10.83203125" style="9"/>
-    <col min="26" max="26" width="10.83203125" style="9"/>
+    <col min="14" max="14" width="10.83203125"/>
+    <col min="16" max="16" width="10.83203125"/>
+    <col min="18" max="18" width="10.83203125"/>
+    <col min="20" max="20" width="10.83203125"/>
+    <col min="22" max="22" width="10.83203125"/>
+    <col min="24" max="24" width="10.83203125"/>
+    <col min="26" max="26" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="L3" s="15"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="9"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="L3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="9"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="9"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="9"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="9"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="9"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="9"/>
       <c r="X4" s="3"/>
-      <c r="Y4" s="9"/>
       <c r="Z4" s="3"/>
-      <c r="AA4" s="9"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="9"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="L5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>600</v>
       </c>
       <c r="B6" t="s">
@@ -5942,25 +5653,17 @@
       <c r="E6" t="s">
         <v>241</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="9"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="L6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>601</v>
       </c>
       <c r="B7" t="s">
@@ -5972,28 +5675,28 @@
       <c r="E7" t="s">
         <v>352</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>242</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -6003,24 +5706,24 @@
         <v>243</v>
       </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="11"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="11"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="11"/>
+      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>603</v>
       </c>
       <c r="B9" t="s">
@@ -6032,25 +5735,25 @@
       <c r="E9" t="s">
         <v>245</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="L9" s="6"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="3"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>604</v>
       </c>
       <c r="B10" t="s">
@@ -6062,25 +5765,25 @@
       <c r="E10" t="s">
         <v>247</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="11"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="L10" s="6"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="3"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>605</v>
       </c>
       <c r="B11" t="s">
@@ -6093,8 +5796,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>606</v>
       </c>
       <c r="B12" t="s">
@@ -6107,8 +5810,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>607</v>
       </c>
       <c r="B13" t="s">
@@ -6120,43 +5823,34 @@
       <c r="E13" t="s">
         <v>347</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="N13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="T14" s="3"/>
       <c r="V14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Z15" s="15"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>208</v>
       </c>
@@ -6164,584 +5858,554 @@
         <v>209</v>
       </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="9"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="9"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="9"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Z16" s="15"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="T16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>584</v>
       </c>
       <c r="B17" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="6" t="s">
         <v>576</v>
       </c>
       <c r="E17" t="s">
         <v>251</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Z17" s="15"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="L17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>585</v>
       </c>
       <c r="B18" t="s">
         <v>351</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="6" t="s">
         <v>577</v>
       </c>
       <c r="E18" t="s">
         <v>353</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="9"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="T18" s="3"/>
       <c r="V18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>586</v>
       </c>
       <c r="B19" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="6" t="s">
         <v>578</v>
       </c>
       <c r="E19" t="s">
         <v>253</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Z19" s="15"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="L19" s="6"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>587</v>
       </c>
       <c r="B20" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="6" t="s">
         <v>579</v>
       </c>
       <c r="E20" t="s">
         <v>255</v>
       </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="11"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Z20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>588</v>
       </c>
       <c r="B21" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="6" t="s">
         <v>580</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="L21" s="6"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>589</v>
       </c>
       <c r="B22" t="s">
         <v>342</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="6" t="s">
         <v>581</v>
       </c>
       <c r="E22" t="s">
         <v>345</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="L22" s="6"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>590</v>
       </c>
       <c r="B23" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="6" t="s">
         <v>582</v>
       </c>
       <c r="E23" t="s">
         <v>259</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="L23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>591</v>
       </c>
       <c r="B24" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="6" t="s">
         <v>583</v>
       </c>
       <c r="E24" t="s">
         <v>349</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="9"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="9"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="9"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="9"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L25" s="15"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="9"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L26" s="15"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="9"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L27" s="15"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="L25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="L26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="L27" s="6"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="11"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="11"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="11"/>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
+      <c r="F30" s="3"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12" t="s">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="15" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="15" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="15" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F49" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6749,19 +6413,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
@@ -6772,7 +6436,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -6783,7 +6447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6794,7 +6458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -6805,7 +6469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6816,7 +6480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6827,7 +6491,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6838,7 +6502,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -6849,7 +6513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -6860,7 +6524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -6871,7 +6535,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -6882,18 +6546,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -6904,7 +6568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -6915,7 +6579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -6926,7 +6590,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -6937,7 +6601,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -6948,7 +6612,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -6959,7 +6623,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6970,7 +6634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -6981,7 +6645,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -6992,7 +6656,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -7003,7 +6667,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -7014,7 +6678,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -7025,7 +6689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -7036,7 +6700,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -7047,7 +6711,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -7058,7 +6722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -7069,7 +6733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -7080,7 +6744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -7091,7 +6755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -7102,7 +6766,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -7113,7 +6777,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -7131,41 +6795,41 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="9"/>
-    <col min="13" max="13" width="10.83203125" style="9"/>
-    <col min="15" max="15" width="10.83203125" style="9"/>
-    <col min="17" max="17" width="10.83203125" style="9"/>
-    <col min="19" max="19" width="10.83203125" style="9"/>
-    <col min="21" max="21" width="10.83203125" style="9"/>
-    <col min="23" max="23" width="10.83203125" style="9"/>
+    <col min="11" max="11" width="10.83203125"/>
+    <col min="13" max="13" width="10.83203125"/>
+    <col min="15" max="15" width="10.83203125"/>
+    <col min="17" max="17" width="10.83203125"/>
+    <col min="19" max="19" width="10.83203125"/>
+    <col min="21" max="21" width="10.83203125"/>
+    <col min="23" max="23" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>208</v>
       </c>
@@ -7173,8 +6837,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>664</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7186,25 +6850,25 @@
       <c r="E6" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="15"/>
+      <c r="O6" s="6"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="15"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="15"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="15"/>
+      <c r="W6" s="6"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7233,8 +6897,8 @@
       <c r="W7" s="3"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7246,25 +6910,25 @@
       <c r="E8" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="15"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="15"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="15"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="15"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7276,25 +6940,25 @@
       <c r="E9" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="15"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="15"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="15"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="15"/>
+      <c r="W9" s="6"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7306,25 +6970,18 @@
       <c r="E10" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="7"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="I10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -7337,24 +6994,17 @@
         <v>366</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="7"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="7"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="7"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="7"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="7"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="7"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="11"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-      <c r="X11" s="7"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -7366,25 +7016,18 @@
       <c r="E12" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="11"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="I12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>671</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7396,51 +7039,44 @@
       <c r="E13" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="7"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="W16" s="15"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="K16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>648</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="6" t="s">
         <v>640</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -7448,52 +7084,48 @@
       </c>
       <c r="K17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="T17" s="9"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>649</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="6" t="s">
         <v>641</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+      <c r="K18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="15"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="15"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="15"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="2"/>
-      <c r="W18" s="15"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>650</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="6" t="s">
         <v>642</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="M19" s="15"/>
+      <c r="K19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="2"/>
       <c r="P19" s="3"/>
@@ -7502,41 +7134,41 @@
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
       <c r="U19" s="2"/>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>651</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="6" t="s">
         <v>643</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
+      <c r="K20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="15"/>
+      <c r="P20" s="6"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="15"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="15"/>
+      <c r="T20" s="6"/>
       <c r="U20" s="2"/>
-      <c r="W20" s="15"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>652</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="6" t="s">
         <v>644</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -7544,111 +7176,96 @@
       </c>
       <c r="K21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="15"/>
+      <c r="P21" s="6"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="15"/>
+      <c r="R21" s="6"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="15"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="2"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>653</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="6" t="s">
         <v>645</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="7"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="K22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>654</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="6" t="s">
         <v>646</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="K23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="K23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="7"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="7"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="7"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="7"/>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>655</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="6" t="s">
         <v>647</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N25" s="6"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="N26" s="15"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="15"/>
+      <c r="P26" s="6"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="15"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="15"/>
+      <c r="T26" s="6"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N27" s="3"/>
       <c r="O27" s="2"/>
       <c r="P27" s="3"/>
@@ -7658,285 +7275,278 @@
       <c r="T27" s="3"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N28" s="15"/>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N28" s="6"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="15"/>
+      <c r="P28" s="6"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="15"/>
+      <c r="R28" s="6"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="15"/>
+      <c r="T28" s="6"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="N29" s="15"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="15"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="15"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="15"/>
+      <c r="T29" s="6"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="N30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="15"/>
-      <c r="T30" s="15"/>
-    </row>
-    <row r="31" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N31" s="3"/>
       <c r="P31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="11"/>
+      <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="11"/>
-    </row>
-    <row r="33" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="N32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>268</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" t="s">
         <v>269</v>
       </c>
-      <c r="N33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="T33" s="15"/>
-    </row>
-    <row r="34" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="N33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>466</v>
       </c>
-      <c r="C34" s="14"/>
       <c r="D34" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>470</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>270</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>478</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="3" t="s">
         <v>476</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>272</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>274</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>465</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
         <v>469</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
         <v>278</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
         <v>472</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" t="s">
         <v>280</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7947,19 +7557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
@@ -7970,7 +7580,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7981,7 +7591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7992,7 +7602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -8003,7 +7613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -8014,7 +7624,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -8025,7 +7635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -8036,7 +7646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -8047,7 +7657,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -8058,7 +7668,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -8069,7 +7679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -8080,7 +7690,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -8091,7 +7701,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -8102,7 +7712,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -8113,7 +7723,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -8124,7 +7734,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -8135,7 +7745,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -8146,7 +7756,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -8157,7 +7767,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -8168,7 +7778,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -8179,7 +7789,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -8190,7 +7800,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -8201,7 +7811,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -8212,7 +7822,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -8223,7 +7833,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -8234,7 +7844,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -8245,7 +7855,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -8256,7 +7866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -8267,7 +7877,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -8278,7 +7888,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -8289,7 +7899,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -8300,7 +7910,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -8311,7 +7921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -8329,170 +7939,168 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="17.33203125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="X7" s="15"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="2" t="s">
         <v>287</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>288</v>
       </c>
       <c r="J8" s="3"/>
       <c r="L8" s="3"/>
       <c r="N8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="2"/>
       <c r="R8" s="3"/>
       <c r="T8" s="3"/>
       <c r="V8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="2" t="s">
         <v>456</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="X9" s="15"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="J9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" t="s">
         <v>290</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="X10" s="15"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="J10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>292</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="X11" s="15"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="J11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>458</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>459</v>
       </c>
       <c r="J12" s="3"/>
@@ -8504,276 +8112,276 @@
       <c r="V12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>460</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" t="s">
         <v>461</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="X13" s="15"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="J13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>462</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>463</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="X14" s="15"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="J14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="X16" s="15"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="L16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="1" t="s">
         <v>209</v>
       </c>
       <c r="L17" s="3"/>
       <c r="V17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>294</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" t="s">
         <v>295</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="15"/>
-      <c r="X18" s="15"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="L18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="6"/>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>296</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" t="s">
         <v>297</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="6"/>
       <c r="N19" s="3"/>
       <c r="P19" s="3"/>
       <c r="R19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="15"/>
-      <c r="X19" s="15"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="U19" s="2"/>
+      <c r="V19" s="6"/>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>302</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" t="s">
         <v>303</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="X20" s="15"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="L20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>298</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" t="s">
         <v>299</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="N21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="N21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="T21" s="6"/>
       <c r="V21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>300</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" t="s">
         <v>301</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="X22" s="15"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="L22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" t="s">
         <v>305</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="6"/>
       <c r="N23" s="3"/>
       <c r="P23" s="3"/>
       <c r="R23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="V23" s="15"/>
-      <c r="X23" s="15"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="V23" s="6"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>306</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" t="s">
         <v>307</v>
       </c>
-      <c r="N24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="T24" s="15"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="N24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>308</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" t="s">
         <v>309</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="T25" s="15"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N26" s="15"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="T26" s="15"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="N26" s="6"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="N27" s="3"/>
       <c r="P27" s="3"/>
       <c r="R27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="T28" s="15"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="T29" s="15"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="N28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="N29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="N30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="T30" s="15"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="N30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>263</v>
       </c>
       <c r="N31" s="3"/>
@@ -8781,239 +8389,239 @@
       <c r="R31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="N32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="T32" s="15"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="N33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="T33" s="15"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="N32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="N33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>310</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>312</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>381</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>314</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
         <v>316</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>318</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>320</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>322</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>324</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
         <v>326</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
         <v>386</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" t="s">
         <v>330</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" t="s">
         <v>332</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>336</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9024,19 +8632,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>202</v>
       </c>
@@ -9047,7 +8655,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -9058,7 +8666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -9069,7 +8677,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -9080,7 +8688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -9091,7 +8699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -9102,7 +8710,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -9113,7 +8721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -9124,7 +8732,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -9135,7 +8743,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -9146,18 +8754,18 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -9168,18 +8776,18 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -9190,7 +8798,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -9201,7 +8809,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9212,7 +8820,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -9223,7 +8831,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -9234,7 +8842,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -9245,7 +8853,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -9256,7 +8864,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -9267,7 +8875,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -9278,7 +8886,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -9289,7 +8897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -9300,7 +8908,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -9311,7 +8919,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -9322,7 +8930,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -9333,7 +8941,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -9344,7 +8952,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -9355,7 +8963,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -9366,7 +8974,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9377,7 +8985,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -9388,7 +8996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
